--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Companies" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>title</t>
   </si>
@@ -64,6 +64,126 @@
   </si>
   <si>
     <t>Swapnali</t>
+  </si>
+  <si>
+    <t>compName</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Mumbai address</t>
+  </si>
+  <si>
+    <t>Thane address</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>400028</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>400063</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>FMCG</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>140000000</t>
   </si>
 </sst>
 </file>
@@ -105,9 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,12 +601,163 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E2058C79-198B-4E16-980A-57DDDB2C8212}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Companies" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Deals" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>title</t>
   </si>
@@ -184,12 +186,78 @@
   </si>
   <si>
     <t>140000000</t>
+  </si>
+  <si>
+    <t>clientLookup</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>New Deal 1</t>
+  </si>
+  <si>
+    <t>New Deal 2</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>200000000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Existing Customer</t>
+  </si>
+  <si>
+    <t>5000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,6 +307,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -286,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,9 +390,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +442,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -600,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,13 +868,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E2058C79-198B-4E16-980A-57DDDB2C8212}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Companies" sheetId="2" r:id="rId2"/>
     <sheet name="Deals" sheetId="3" r:id="rId3"/>
+    <sheet name="Cases" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>title</t>
   </si>
@@ -252,12 +251,66 @@
   </si>
   <si>
     <t>5000</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>CaseTitle1</t>
+  </si>
+  <si>
+    <t>CaseTitle2</t>
+  </si>
+  <si>
+    <t>Awaiting input</t>
+  </si>
+  <si>
+    <t>Enquiring</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>Business Support</t>
+  </si>
+  <si>
+    <t>Complaint</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>zzzx</t>
+  </si>
+  <si>
+    <t>Case 1 tag</t>
+  </si>
+  <si>
+    <t>Case 2 tag</t>
+  </si>
+  <si>
+    <t>Case 1 description</t>
+  </si>
+  <si>
+    <t>Case 2 description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,26 +443,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,23 +478,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,7 +653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -705,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,11 +887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,4 +997,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="3"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Companies" sheetId="2" r:id="rId2"/>
     <sheet name="Deals" sheetId="3" r:id="rId3"/>
     <sheet name="Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="Calls" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>title</t>
   </si>
@@ -256,12 +257,6 @@
     <t>contact</t>
   </si>
   <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>CaseTitle1</t>
   </si>
   <si>
@@ -295,16 +290,43 @@
     <t>zzzx</t>
   </si>
   <si>
-    <t>Case 1 tag</t>
-  </si>
-  <si>
-    <t>Case 2 tag</t>
-  </si>
-  <si>
-    <t>Case 1 description</t>
-  </si>
-  <si>
-    <t>Case 2 description</t>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>Call Back</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>gggg</t>
+  </si>
+  <si>
+    <t>hhhh</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,11 +1037,9 @@
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,63 +1058,118 @@
       <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
       </c>
       <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>title</t>
   </si>
@@ -288,15 +288,6 @@
   </si>
   <si>
     <t>zzzx</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>Busy</t>
-  </si>
-  <si>
-    <t>Call Back</t>
   </si>
   <si>
     <t>deal</t>
@@ -1106,13 +1097,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1120,56 +1113,47 @@
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="4"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Deals" sheetId="3" r:id="rId3"/>
     <sheet name="Cases" sheetId="4" r:id="rId4"/>
     <sheet name="Calls" sheetId="5" r:id="rId5"/>
+    <sheet name="Docs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>title</t>
   </si>
@@ -318,6 +319,75 @@
   </si>
   <si>
     <t>hhhh</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Doc1</t>
+  </si>
+  <si>
+    <t>Document 1</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>efgh</t>
+  </si>
+  <si>
+    <t>ijkl</t>
+  </si>
+  <si>
+    <t>mnop</t>
+  </si>
+  <si>
+    <t>qrst</t>
+  </si>
+  <si>
+    <t>uvwxyz</t>
+  </si>
+  <si>
+    <t>Doc2</t>
+  </si>
+  <si>
+    <t>Document 2</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>dcba</t>
+  </si>
+  <si>
+    <t>hgfe</t>
+  </si>
+  <si>
+    <t>lkji</t>
+  </si>
+  <si>
+    <t>ponm</t>
+  </si>
+  <si>
+    <t>tsrq</t>
+  </si>
+  <si>
+    <t>zyxwvy</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,4 +1229,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="5"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,17 @@
     <sheet name="Cases" sheetId="4" r:id="rId4"/>
     <sheet name="Calls" sheetId="5" r:id="rId5"/>
     <sheet name="Docs" sheetId="6" r:id="rId6"/>
+    <sheet name="Templates" sheetId="7" r:id="rId7"/>
+    <sheet name="MultiDocs" sheetId="8" r:id="rId8"/>
+    <sheet name="FeedbackForms" sheetId="9" r:id="rId9"/>
+    <sheet name="Tasks" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="181">
   <si>
     <t>title</t>
   </si>
@@ -388,16 +392,198 @@
   </si>
   <si>
     <t>zyxwvy</t>
+  </si>
+  <si>
+    <t>Template1</t>
+  </si>
+  <si>
+    <t>Template1 description</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>Template 1 tags</t>
+  </si>
+  <si>
+    <t>Template2</t>
+  </si>
+  <si>
+    <t>Template2 description</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>Template 2 tags</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>Root directory</t>
+  </si>
+  <si>
+    <t>Word Templates</t>
+  </si>
+  <si>
+    <t>contact1</t>
+  </si>
+  <si>
+    <t>contact2</t>
+  </si>
+  <si>
+    <t>company1</t>
+  </si>
+  <si>
+    <t>company2</t>
+  </si>
+  <si>
+    <t>prospect1</t>
+  </si>
+  <si>
+    <t>prospect2</t>
+  </si>
+  <si>
+    <t>task1</t>
+  </si>
+  <si>
+    <t>task2</t>
+  </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
+    <t>tag2</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>reportEmail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>welcomeMessage</t>
+  </si>
+  <si>
+    <t>confirmationMessage</t>
+  </si>
+  <si>
+    <t>Form title 1</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Form 1 description</t>
+  </si>
+  <si>
+    <t>Form 1 welcome message</t>
+  </si>
+  <si>
+    <t>Form1 confirmation message</t>
+  </si>
+  <si>
+    <t>Form title 2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>def@gmail.com</t>
+  </si>
+  <si>
+    <t>Form 2 description</t>
+  </si>
+  <si>
+    <t>Form 2 welcome message</t>
+  </si>
+  <si>
+    <t>Form2 confirmation message</t>
+  </si>
+  <si>
+    <t>autoextend</t>
+  </si>
+  <si>
+    <t>completionpercentage</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Extend deadline by 1 day</t>
+  </si>
+  <si>
+    <t>Extend deadline by 30 days</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>deal1</t>
+  </si>
+  <si>
+    <t>deal2</t>
+  </si>
+  <si>
+    <t>tagdesc1</t>
+  </si>
+  <si>
+    <t>tagdesc2</t>
+  </si>
+  <si>
+    <t>identifier1</t>
+  </si>
+  <si>
+    <t>identifier2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,15 +612,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,6 +995,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
@@ -1235,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1334,4 +1665,233 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/freeCrmTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="9"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23004" windowHeight="12888" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="MultiDocs" sheetId="8" r:id="rId8"/>
     <sheet name="FeedbackForms" sheetId="9" r:id="rId9"/>
     <sheet name="Tasks" sheetId="10" r:id="rId10"/>
+    <sheet name="Alerts" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="195">
   <si>
     <t>title</t>
   </si>
@@ -566,6 +567,48 @@
   </si>
   <si>
     <t>identifier2</t>
+  </si>
+  <si>
+    <t>AlertSendMode</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>[O]wner</t>
+  </si>
+  <si>
+    <t>[S]pecific User (select below)</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Ownership Changed</t>
+  </si>
+  <si>
+    <t>Note Added</t>
+  </si>
+  <si>
+    <t>Email Alert</t>
+  </si>
+  <si>
+    <t>Text Message Alert</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -999,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,6 +1173,76 @@
       </c>
       <c r="M3" t="s">
         <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1935,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
